--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf1-Cspg4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf1-Cspg4.xlsx
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Fgf1</t>
+  </si>
+  <si>
+    <t>Cspg4</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf1</t>
-  </si>
-  <si>
-    <t>Cspg4</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H2">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I2">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J2">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.162471666666667</v>
+        <v>4.233376</v>
       </c>
       <c r="N2">
-        <v>3.487415</v>
+        <v>12.700128</v>
       </c>
       <c r="O2">
-        <v>0.05948594836865682</v>
+        <v>0.1907241021355418</v>
       </c>
       <c r="P2">
-        <v>0.05948594836865682</v>
+        <v>0.1907241021355418</v>
       </c>
       <c r="Q2">
-        <v>0.6869951806233333</v>
+        <v>2.910182119562667</v>
       </c>
       <c r="R2">
-        <v>6.18295662561</v>
+        <v>26.191639076064</v>
       </c>
       <c r="S2">
-        <v>0.008094059807826086</v>
+        <v>0.04445483680936225</v>
       </c>
       <c r="T2">
-        <v>0.008094059807826086</v>
+        <v>0.04445483680936223</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H3">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I3">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J3">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.360490666666666</v>
+        <v>5.360490666666667</v>
       </c>
       <c r="N3">
         <v>16.081472</v>
       </c>
       <c r="O3">
-        <v>0.2743067897236206</v>
+        <v>0.2415034169905891</v>
       </c>
       <c r="P3">
-        <v>0.2743067897236206</v>
+        <v>0.241503416990589</v>
       </c>
       <c r="Q3">
-        <v>3.167932053205333</v>
+        <v>3.685003196081778</v>
       </c>
       <c r="R3">
-        <v>28.511388478848</v>
+        <v>33.16502876473601</v>
       </c>
       <c r="S3">
-        <v>0.03732403403835809</v>
+        <v>0.05629070930736512</v>
       </c>
       <c r="T3">
-        <v>0.03732403403835809</v>
+        <v>0.05629070930736511</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H4">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I4">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J4">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4960333333333334</v>
+        <v>0.147571</v>
       </c>
       <c r="N4">
-        <v>1.4881</v>
+        <v>0.442713</v>
       </c>
       <c r="O4">
-        <v>0.02538299564789342</v>
+        <v>0.006648440033732898</v>
       </c>
       <c r="P4">
-        <v>0.02538299564789342</v>
+        <v>0.006648440033732897</v>
       </c>
       <c r="Q4">
-        <v>0.2931447872666667</v>
+        <v>0.1014458639076667</v>
       </c>
       <c r="R4">
-        <v>2.6383030854</v>
+        <v>0.913012775169</v>
       </c>
       <c r="S4">
-        <v>0.00345378178393624</v>
+        <v>0.001549648489242249</v>
       </c>
       <c r="T4">
-        <v>0.00345378178393624</v>
+        <v>0.001549648489242249</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H5">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I5">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J5">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.217072</v>
+        <v>10.554749</v>
       </c>
       <c r="N5">
-        <v>36.65121600000001</v>
+        <v>31.664247</v>
       </c>
       <c r="O5">
-        <v>0.625171464429811</v>
+        <v>0.4755176545364758</v>
       </c>
       <c r="P5">
-        <v>0.625171464429811</v>
+        <v>0.4755176545364758</v>
       </c>
       <c r="Q5">
-        <v>7.220020776416001</v>
+        <v>7.255732024812334</v>
       </c>
       <c r="R5">
-        <v>64.98018698774401</v>
+        <v>65.30158822331101</v>
       </c>
       <c r="S5">
-        <v>0.08506505085673843</v>
+        <v>0.1108358067789819</v>
       </c>
       <c r="T5">
-        <v>0.08506505085673843</v>
+        <v>0.1108358067789819</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H6">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I6">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J6">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1821596666666667</v>
+        <v>0.2924906666666667</v>
       </c>
       <c r="N6">
-        <v>0.546479</v>
+        <v>0.877472</v>
       </c>
       <c r="O6">
-        <v>0.009321466352170652</v>
+        <v>0.01317743091637172</v>
       </c>
       <c r="P6">
-        <v>0.009321466352170652</v>
+        <v>0.01317743091637172</v>
       </c>
       <c r="Q6">
-        <v>0.1076523554873333</v>
+        <v>0.2010691014151111</v>
       </c>
       <c r="R6">
-        <v>0.9688711993860001</v>
+        <v>1.809621912736</v>
       </c>
       <c r="S6">
-        <v>0.001268341654125188</v>
+        <v>0.003071455229804354</v>
       </c>
       <c r="T6">
-        <v>0.001268341654125188</v>
+        <v>0.003071455229804354</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.590978</v>
+        <v>0.6874376666666667</v>
       </c>
       <c r="H7">
-        <v>1.772934</v>
+        <v>2.062313</v>
       </c>
       <c r="I7">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="J7">
-        <v>0.1360667523977957</v>
+        <v>0.2330845252991127</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1237266666666667</v>
+        <v>1.607657333333333</v>
       </c>
       <c r="N7">
-        <v>0.37118</v>
+        <v>4.822972</v>
       </c>
       <c r="O7">
-        <v>0.006331335477847643</v>
+        <v>0.07242895538728887</v>
       </c>
       <c r="P7">
-        <v>0.006331335477847644</v>
+        <v>0.07242895538728887</v>
       </c>
       <c r="Q7">
-        <v>0.07311973801333334</v>
+        <v>1.105164206026222</v>
       </c>
       <c r="R7">
-        <v>0.65807764212</v>
+        <v>9.946477854236001</v>
       </c>
       <c r="S7">
-        <v>0.0008614842568116747</v>
+        <v>0.01688206868435684</v>
       </c>
       <c r="T7">
-        <v>0.0008614842568116748</v>
+        <v>0.01688206868435684</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.404332</v>
       </c>
       <c r="I8">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J8">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.162471666666667</v>
+        <v>4.233376</v>
       </c>
       <c r="N8">
-        <v>3.487415</v>
+        <v>12.700128</v>
       </c>
       <c r="O8">
-        <v>0.05948594836865682</v>
+        <v>0.1907241021355418</v>
       </c>
       <c r="P8">
-        <v>0.05948594836865682</v>
+        <v>0.1907241021355418</v>
       </c>
       <c r="Q8">
-        <v>0.5441653868644445</v>
+        <v>1.981688461610667</v>
       </c>
       <c r="R8">
-        <v>4.89748848178</v>
+        <v>17.835196154496</v>
       </c>
       <c r="S8">
-        <v>0.006411263587953091</v>
+        <v>0.03027152032022554</v>
       </c>
       <c r="T8">
-        <v>0.006411263587953092</v>
+        <v>0.03027152032022554</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.404332</v>
       </c>
       <c r="I9">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J9">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.360490666666666</v>
+        <v>5.360490666666667</v>
       </c>
       <c r="N9">
         <v>16.081472</v>
       </c>
       <c r="O9">
-        <v>0.2743067897236206</v>
+        <v>0.2415034169905891</v>
       </c>
       <c r="P9">
-        <v>0.2743067897236206</v>
+        <v>0.241503416990589</v>
       </c>
       <c r="Q9">
         <v>2.509302859633778</v>
@@ -1013,10 +1013,10 @@
         <v>22.583725736704</v>
       </c>
       <c r="S9">
-        <v>0.02956417744211319</v>
+        <v>0.03833115748338428</v>
       </c>
       <c r="T9">
-        <v>0.02956417744211319</v>
+        <v>0.03833115748338427</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>1.404332</v>
       </c>
       <c r="I10">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J10">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4960333333333334</v>
+        <v>0.147571</v>
       </c>
       <c r="N10">
-        <v>1.4881</v>
+        <v>0.442713</v>
       </c>
       <c r="O10">
-        <v>0.02538299564789342</v>
+        <v>0.006648440033732898</v>
       </c>
       <c r="P10">
-        <v>0.02538299564789342</v>
+        <v>0.006648440033732897</v>
       </c>
       <c r="Q10">
-        <v>0.2321984943555556</v>
+        <v>0.06907955919066668</v>
       </c>
       <c r="R10">
-        <v>2.0897864492</v>
+        <v>0.6217160327160001</v>
       </c>
       <c r="S10">
-        <v>0.002735722976827535</v>
+        <v>0.00105523311068424</v>
       </c>
       <c r="T10">
-        <v>0.002735722976827535</v>
+        <v>0.00105523311068424</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>1.404332</v>
       </c>
       <c r="I11">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J11">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.217072</v>
+        <v>10.554749</v>
       </c>
       <c r="N11">
-        <v>36.65121600000001</v>
+        <v>31.664247</v>
       </c>
       <c r="O11">
-        <v>0.625171464429811</v>
+        <v>0.4755176545364758</v>
       </c>
       <c r="P11">
-        <v>0.625171464429811</v>
+        <v>0.4755176545364758</v>
       </c>
       <c r="Q11">
-        <v>5.718941718634668</v>
+        <v>4.940790590889335</v>
       </c>
       <c r="R11">
-        <v>51.47047546771201</v>
+        <v>44.46711531800401</v>
       </c>
       <c r="S11">
-        <v>0.06737959393849134</v>
+        <v>0.07547364061883007</v>
       </c>
       <c r="T11">
-        <v>0.06737959393849134</v>
+        <v>0.07547364061883004</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,40 +1169,40 @@
         <v>1.404332</v>
       </c>
       <c r="I12">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J12">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1821596666666667</v>
+        <v>0.2924906666666667</v>
       </c>
       <c r="N12">
-        <v>0.546479</v>
+        <v>0.877472</v>
       </c>
       <c r="O12">
-        <v>0.009321466352170652</v>
+        <v>0.01317743091637172</v>
       </c>
       <c r="P12">
-        <v>0.009321466352170652</v>
+        <v>0.01317743091637172</v>
       </c>
       <c r="Q12">
-        <v>0.08527088300311113</v>
+        <v>0.1369180009671111</v>
       </c>
       <c r="R12">
-        <v>0.7674379470280002</v>
+        <v>1.232262008704</v>
       </c>
       <c r="S12">
-        <v>0.001004646970401004</v>
+        <v>0.00209150738310897</v>
       </c>
       <c r="T12">
-        <v>0.001004646970401004</v>
+        <v>0.002091507383108969</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>1.404332</v>
       </c>
       <c r="I13">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="J13">
-        <v>0.1077777822120289</v>
+        <v>0.1587189032810992</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1237266666666667</v>
+        <v>1.607657333333333</v>
       </c>
       <c r="N13">
-        <v>0.37118</v>
+        <v>4.822972</v>
       </c>
       <c r="O13">
-        <v>0.006331335477847643</v>
+        <v>0.07242895538728887</v>
       </c>
       <c r="P13">
-        <v>0.006331335477847644</v>
+        <v>0.07242895538728887</v>
       </c>
       <c r="Q13">
-        <v>0.05791777241777778</v>
+        <v>0.7525615460782223</v>
       </c>
       <c r="R13">
-        <v>0.5212599517600001</v>
+        <v>6.773053914704001</v>
       </c>
       <c r="S13">
-        <v>0.0006823772962427552</v>
+        <v>0.01149584436486615</v>
       </c>
       <c r="T13">
-        <v>0.0006823772962427553</v>
+        <v>0.01149584436486615</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.02272533333333333</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H14">
-        <v>0.068176</v>
+        <v>5.274976</v>
       </c>
       <c r="I14">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J14">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.162471666666667</v>
+        <v>4.233376</v>
       </c>
       <c r="N14">
-        <v>3.487415</v>
+        <v>12.700128</v>
       </c>
       <c r="O14">
-        <v>0.05948594836865682</v>
+        <v>0.1907241021355418</v>
       </c>
       <c r="P14">
-        <v>0.05948594836865682</v>
+        <v>0.1907241021355418</v>
       </c>
       <c r="Q14">
-        <v>0.02641755611555555</v>
+        <v>7.443652266325333</v>
       </c>
       <c r="R14">
-        <v>0.23775800504</v>
+        <v>66.992870396928</v>
       </c>
       <c r="S14">
-        <v>0.0003112471312854011</v>
+        <v>0.1137064050186865</v>
       </c>
       <c r="T14">
-        <v>0.0003112471312854011</v>
+        <v>0.1137064050186865</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.02272533333333333</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H15">
-        <v>0.068176</v>
+        <v>5.274976</v>
       </c>
       <c r="I15">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J15">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.360490666666666</v>
+        <v>5.360490666666667</v>
       </c>
       <c r="N15">
         <v>16.081472</v>
       </c>
       <c r="O15">
-        <v>0.2743067897236206</v>
+        <v>0.2415034169905891</v>
       </c>
       <c r="P15">
-        <v>0.2743067897236206</v>
+        <v>0.241503416990589</v>
       </c>
       <c r="Q15">
-        <v>0.1218189372302222</v>
+        <v>9.425486538296889</v>
       </c>
       <c r="R15">
-        <v>1.096370435072</v>
+        <v>84.82937884467201</v>
       </c>
       <c r="S15">
-        <v>0.001435249899093312</v>
+        <v>0.1439801526826081</v>
       </c>
       <c r="T15">
-        <v>0.001435249899093312</v>
+        <v>0.1439801526826081</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.02272533333333333</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H16">
-        <v>0.068176</v>
+        <v>5.274976</v>
       </c>
       <c r="I16">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J16">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4960333333333334</v>
+        <v>0.147571</v>
       </c>
       <c r="N16">
-        <v>1.4881</v>
+        <v>0.442713</v>
       </c>
       <c r="O16">
-        <v>0.02538299564789342</v>
+        <v>0.006648440033732898</v>
       </c>
       <c r="P16">
-        <v>0.02538299564789342</v>
+        <v>0.006648440033732897</v>
       </c>
       <c r="Q16">
-        <v>0.01127252284444445</v>
+        <v>0.2594778277653333</v>
       </c>
       <c r="R16">
-        <v>0.1014527056</v>
+        <v>2.335300449888</v>
       </c>
       <c r="S16">
-        <v>0.0001328109376331195</v>
+        <v>0.003963684750660604</v>
       </c>
       <c r="T16">
-        <v>0.0001328109376331195</v>
+        <v>0.003963684750660603</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.02272533333333333</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H17">
-        <v>0.068176</v>
+        <v>5.274976</v>
       </c>
       <c r="I17">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J17">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.217072</v>
+        <v>10.554749</v>
       </c>
       <c r="N17">
-        <v>36.65121600000001</v>
+        <v>31.664247</v>
       </c>
       <c r="O17">
-        <v>0.625171464429811</v>
+        <v>0.4755176545364758</v>
       </c>
       <c r="P17">
-        <v>0.625171464429811</v>
+        <v>0.4755176545364758</v>
       </c>
       <c r="Q17">
-        <v>0.2776370335573334</v>
+        <v>18.55868255367467</v>
       </c>
       <c r="R17">
-        <v>2.498733302016</v>
+        <v>167.028142983072</v>
       </c>
       <c r="S17">
-        <v>0.003271072080071226</v>
+        <v>0.2834953863452187</v>
       </c>
       <c r="T17">
-        <v>0.003271072080071226</v>
+        <v>0.2834953863452186</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,55 +1526,55 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.02272533333333333</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H18">
-        <v>0.068176</v>
+        <v>5.274976</v>
       </c>
       <c r="I18">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J18">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1821596666666667</v>
+        <v>0.2924906666666667</v>
       </c>
       <c r="N18">
-        <v>0.546479</v>
+        <v>0.877472</v>
       </c>
       <c r="O18">
-        <v>0.009321466352170652</v>
+        <v>0.01317743091637172</v>
       </c>
       <c r="P18">
-        <v>0.009321466352170652</v>
+        <v>0.01317743091637172</v>
       </c>
       <c r="Q18">
-        <v>0.00413963914488889</v>
+        <v>0.5142937489635555</v>
       </c>
       <c r="R18">
-        <v>0.037256752304</v>
+        <v>4.628643740672</v>
       </c>
       <c r="S18">
-        <v>4.877252092386904E-05</v>
+        <v>0.007856155987133113</v>
       </c>
       <c r="T18">
-        <v>4.877252092386904E-05</v>
+        <v>0.007856155987133111</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.02272533333333333</v>
+        <v>1.758325333333333</v>
       </c>
       <c r="H19">
-        <v>0.068176</v>
+        <v>5.274976</v>
       </c>
       <c r="I19">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104559</v>
       </c>
       <c r="J19">
-        <v>0.00523227988829371</v>
+        <v>0.5961826730104558</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1237266666666667</v>
+        <v>1.607657333333333</v>
       </c>
       <c r="N19">
-        <v>0.37118</v>
+        <v>4.822972</v>
       </c>
       <c r="O19">
-        <v>0.006331335477847643</v>
+        <v>0.07242895538728887</v>
       </c>
       <c r="P19">
-        <v>0.006331335477847644</v>
+        <v>0.07242895538728887</v>
       </c>
       <c r="Q19">
-        <v>0.002811729742222222</v>
+        <v>2.826784616519111</v>
       </c>
       <c r="R19">
-        <v>0.02530556768</v>
+        <v>25.441061548672</v>
       </c>
       <c r="S19">
-        <v>3.312731928678266E-05</v>
+        <v>0.04318088822614894</v>
       </c>
       <c r="T19">
-        <v>3.312731928678267E-05</v>
+        <v>0.04318088822614893</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>3.157754</v>
+        <v>0.01541033333333333</v>
       </c>
       <c r="H20">
-        <v>9.473262</v>
+        <v>0.046231</v>
       </c>
       <c r="I20">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="J20">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.162471666666667</v>
+        <v>4.233376</v>
       </c>
       <c r="N20">
-        <v>3.487415</v>
+        <v>12.700128</v>
       </c>
       <c r="O20">
-        <v>0.05948594836865682</v>
+        <v>0.1907241021355418</v>
       </c>
       <c r="P20">
-        <v>0.05948594836865682</v>
+        <v>0.1907241021355418</v>
       </c>
       <c r="Q20">
-        <v>3.670799555303333</v>
+        <v>0.06523773528533333</v>
       </c>
       <c r="R20">
-        <v>33.03719599773</v>
+        <v>0.587139617568</v>
       </c>
       <c r="S20">
-        <v>0.04324873300596986</v>
+        <v>0.0009965468677808004</v>
       </c>
       <c r="T20">
-        <v>0.04324873300596987</v>
+        <v>0.0009965468677808002</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>3.157754</v>
+        <v>0.01541033333333333</v>
       </c>
       <c r="H21">
-        <v>9.473262</v>
+        <v>0.046231</v>
       </c>
       <c r="I21">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="J21">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.360490666666666</v>
+        <v>5.360490666666667</v>
       </c>
       <c r="N21">
         <v>16.081472</v>
       </c>
       <c r="O21">
-        <v>0.2743067897236206</v>
+        <v>0.2415034169905891</v>
       </c>
       <c r="P21">
-        <v>0.2743067897236206</v>
+        <v>0.241503416990589</v>
       </c>
       <c r="Q21">
-        <v>16.92711084462933</v>
+        <v>0.08260694800355556</v>
       </c>
       <c r="R21">
-        <v>152.343997601664</v>
+        <v>0.7434625320320001</v>
       </c>
       <c r="S21">
-        <v>0.1994323270591485</v>
+        <v>0.001261872364664722</v>
       </c>
       <c r="T21">
-        <v>0.1994323270591485</v>
+        <v>0.001261872364664722</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,25 +1774,25 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>3.157754</v>
+        <v>0.01541033333333333</v>
       </c>
       <c r="H22">
-        <v>9.473262</v>
+        <v>0.046231</v>
       </c>
       <c r="I22">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="J22">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4960333333333334</v>
+        <v>0.147571</v>
       </c>
       <c r="N22">
-        <v>1.4881</v>
+        <v>0.442713</v>
       </c>
       <c r="O22">
-        <v>0.02538299564789342</v>
+        <v>0.006648440033732898</v>
       </c>
       <c r="P22">
-        <v>0.02538299564789342</v>
+        <v>0.006648440033732897</v>
       </c>
       <c r="Q22">
-        <v>1.566351242466667</v>
+        <v>0.002274118300333334</v>
       </c>
       <c r="R22">
-        <v>14.0971611822</v>
+        <v>0.020467064703</v>
       </c>
       <c r="S22">
-        <v>0.01845448264292714</v>
+        <v>3.473856747552792E-05</v>
       </c>
       <c r="T22">
-        <v>0.01845448264292714</v>
+        <v>3.473856747552792E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,25 +1836,25 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>3.157754</v>
+        <v>0.01541033333333333</v>
       </c>
       <c r="H23">
-        <v>9.473262</v>
+        <v>0.046231</v>
       </c>
       <c r="I23">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="J23">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>12.217072</v>
+        <v>10.554749</v>
       </c>
       <c r="N23">
-        <v>36.65121600000001</v>
+        <v>31.664247</v>
       </c>
       <c r="O23">
-        <v>0.625171464429811</v>
+        <v>0.4755176545364758</v>
       </c>
       <c r="P23">
-        <v>0.625171464429811</v>
+        <v>0.4755176545364758</v>
       </c>
       <c r="Q23">
-        <v>38.57850797628801</v>
+        <v>0.1626522003396667</v>
       </c>
       <c r="R23">
-        <v>347.2065717865921</v>
+        <v>1.463869803057</v>
       </c>
       <c r="S23">
-        <v>0.4545253877522839</v>
+        <v>0.002484613239212047</v>
       </c>
       <c r="T23">
-        <v>0.4545253877522839</v>
+        <v>0.002484613239212046</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,55 +1898,55 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>3.157754</v>
+        <v>0.01541033333333333</v>
       </c>
       <c r="H24">
-        <v>9.473262</v>
+        <v>0.046231</v>
       </c>
       <c r="I24">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="J24">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1821596666666667</v>
+        <v>0.2924906666666667</v>
       </c>
       <c r="N24">
-        <v>0.546479</v>
+        <v>0.877472</v>
       </c>
       <c r="O24">
-        <v>0.009321466352170652</v>
+        <v>0.01317743091637172</v>
       </c>
       <c r="P24">
-        <v>0.009321466352170652</v>
+        <v>0.01317743091637172</v>
       </c>
       <c r="Q24">
-        <v>0.5752154160553334</v>
+        <v>0.004507378670222223</v>
       </c>
       <c r="R24">
-        <v>5.176938744498001</v>
+        <v>0.04056640803200001</v>
       </c>
       <c r="S24">
-        <v>0.00677708972530353</v>
+        <v>6.885300472289371E-05</v>
       </c>
       <c r="T24">
-        <v>0.00677708972530353</v>
+        <v>6.885300472289369E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>3.157754</v>
+        <v>0.01541033333333333</v>
       </c>
       <c r="H25">
-        <v>9.473262</v>
+        <v>0.046231</v>
       </c>
       <c r="I25">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="J25">
-        <v>0.7270411616864739</v>
+        <v>0.005225070437466708</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1237266666666667</v>
+        <v>1.607657333333333</v>
       </c>
       <c r="N25">
-        <v>0.37118</v>
+        <v>4.822972</v>
       </c>
       <c r="O25">
-        <v>0.006331335477847643</v>
+        <v>0.07242895538728887</v>
       </c>
       <c r="P25">
-        <v>0.006331335477847644</v>
+        <v>0.07242895538728887</v>
       </c>
       <c r="Q25">
-        <v>0.3906983765733333</v>
+        <v>0.02477453539244444</v>
       </c>
       <c r="R25">
-        <v>3.51628538916</v>
+        <v>0.222970818532</v>
       </c>
       <c r="S25">
-        <v>0.004603141500841137</v>
+        <v>0.0003784463936107181</v>
       </c>
       <c r="T25">
-        <v>0.004603141500841137</v>
+        <v>0.0003784463936107181</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.1037266666666667</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H26">
-        <v>0.31118</v>
+        <v>0.060067</v>
       </c>
       <c r="I26">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="J26">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.162471666666667</v>
+        <v>4.233376</v>
       </c>
       <c r="N26">
-        <v>3.487415</v>
+        <v>12.700128</v>
       </c>
       <c r="O26">
-        <v>0.05948594836865682</v>
+        <v>0.1907241021355418</v>
       </c>
       <c r="P26">
-        <v>0.05948594836865682</v>
+        <v>0.1907241021355418</v>
       </c>
       <c r="Q26">
-        <v>0.1205793110777778</v>
+        <v>0.08476206539733333</v>
       </c>
       <c r="R26">
-        <v>1.0852137997</v>
+        <v>0.762858588576</v>
       </c>
       <c r="S26">
-        <v>0.001420644835622376</v>
+        <v>0.001294793119486694</v>
       </c>
       <c r="T26">
-        <v>0.001420644835622376</v>
+        <v>0.001294793119486694</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.1037266666666667</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H27">
-        <v>0.31118</v>
+        <v>0.060067</v>
       </c>
       <c r="I27">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="J27">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>5.360490666666666</v>
+        <v>5.360490666666667</v>
       </c>
       <c r="N27">
         <v>16.081472</v>
       </c>
       <c r="O27">
-        <v>0.2743067897236206</v>
+        <v>0.2415034169905891</v>
       </c>
       <c r="P27">
-        <v>0.2743067897236206</v>
+        <v>0.241503416990589</v>
       </c>
       <c r="Q27">
-        <v>0.5560258285511112</v>
+        <v>0.1073295309582222</v>
       </c>
       <c r="R27">
-        <v>5.00423245696</v>
+        <v>0.9659657786240001</v>
       </c>
       <c r="S27">
-        <v>0.006551001284907544</v>
+        <v>0.001639525152566803</v>
       </c>
       <c r="T27">
-        <v>0.006551001284907544</v>
+        <v>0.001639525152566802</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2146,7 +2146,7 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2155,16 +2155,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.1037266666666667</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H28">
-        <v>0.31118</v>
+        <v>0.060067</v>
       </c>
       <c r="I28">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="J28">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.4960333333333334</v>
+        <v>0.147571</v>
       </c>
       <c r="N28">
-        <v>1.4881</v>
+        <v>0.442713</v>
       </c>
       <c r="O28">
-        <v>0.02538299564789342</v>
+        <v>0.006648440033732898</v>
       </c>
       <c r="P28">
-        <v>0.02538299564789342</v>
+        <v>0.006648440033732897</v>
       </c>
       <c r="Q28">
-        <v>0.05145188422222223</v>
+        <v>0.002954715752333333</v>
       </c>
       <c r="R28">
-        <v>0.4630669580000001</v>
+        <v>0.026592441771</v>
       </c>
       <c r="S28">
-        <v>0.0006061973065693812</v>
+        <v>4.513511567027613E-05</v>
       </c>
       <c r="T28">
-        <v>0.0006061973065693812</v>
+        <v>4.513511567027613E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,7 +2208,7 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.1037266666666667</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H29">
-        <v>0.31118</v>
+        <v>0.060067</v>
       </c>
       <c r="I29">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="J29">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>12.217072</v>
+        <v>10.554749</v>
       </c>
       <c r="N29">
-        <v>36.65121600000001</v>
+        <v>31.664247</v>
       </c>
       <c r="O29">
-        <v>0.625171464429811</v>
+        <v>0.4755176545364758</v>
       </c>
       <c r="P29">
-        <v>0.625171464429811</v>
+        <v>0.4755176545364758</v>
       </c>
       <c r="Q29">
-        <v>1.267236154986667</v>
+        <v>0.2113307027276667</v>
       </c>
       <c r="R29">
-        <v>11.40512539488</v>
+        <v>1.901976324549</v>
       </c>
       <c r="S29">
-        <v>0.01493035980222607</v>
+        <v>0.00322820755423309</v>
       </c>
       <c r="T29">
-        <v>0.01493035980222607</v>
+        <v>0.00322820755423309</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,7 +2270,7 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2279,46 +2279,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.1037266666666667</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H30">
-        <v>0.31118</v>
+        <v>0.060067</v>
       </c>
       <c r="I30">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="J30">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.1821596666666667</v>
+        <v>0.2924906666666667</v>
       </c>
       <c r="N30">
-        <v>0.546479</v>
+        <v>0.877472</v>
       </c>
       <c r="O30">
-        <v>0.009321466352170652</v>
+        <v>0.01317743091637172</v>
       </c>
       <c r="P30">
-        <v>0.009321466352170652</v>
+        <v>0.01317743091637172</v>
       </c>
       <c r="Q30">
-        <v>0.01889481502444445</v>
+        <v>0.005856345624888889</v>
       </c>
       <c r="R30">
-        <v>0.17005333522</v>
+        <v>0.05270711062400001</v>
       </c>
       <c r="S30">
-        <v>0.0002226154814170613</v>
+        <v>8.945931160238922E-05</v>
       </c>
       <c r="T30">
-        <v>0.0002226154814170613</v>
+        <v>8.945931160238921E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.1037266666666667</v>
+        <v>0.02002233333333333</v>
       </c>
       <c r="H31">
-        <v>0.31118</v>
+        <v>0.060067</v>
       </c>
       <c r="I31">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="J31">
-        <v>0.02388202381540772</v>
+        <v>0.006788827971865474</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.1237266666666667</v>
+        <v>1.607657333333333</v>
       </c>
       <c r="N31">
-        <v>0.37118</v>
+        <v>4.822972</v>
       </c>
       <c r="O31">
-        <v>0.006331335477847643</v>
+        <v>0.07242895538728887</v>
       </c>
       <c r="P31">
-        <v>0.006331335477847644</v>
+        <v>0.07242895538728887</v>
       </c>
       <c r="Q31">
-        <v>0.01283375471111111</v>
+        <v>0.03218905101377777</v>
       </c>
       <c r="R31">
-        <v>0.1155037924</v>
+        <v>0.289701459124</v>
       </c>
       <c r="S31">
-        <v>0.0001512051046652932</v>
+        <v>0.0004917077183062232</v>
       </c>
       <c r="T31">
-        <v>0.0001512051046652932</v>
+        <v>0.0004917077183062232</v>
       </c>
     </row>
   </sheetData>
